--- a/REGULAR/OJT/NEW DONE/MIRANDA, BIENVENIDO.xlsx
+++ b/REGULAR/OJT/NEW DONE/MIRANDA, BIENVENIDO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F20B19-CAA7-4B64-A82F-91C8C8C24E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1255CB12-5758-4570-ABF5-71F113E008DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="184">
   <si>
     <t>PERIOD</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>GSO</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
   </si>
 </sst>
 </file>
@@ -3116,7 +3119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3168,7 +3171,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3393,10 +3396,10 @@
   </sheetPr>
   <dimension ref="A2:K470"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
-      <pane ySplit="3912" topLeftCell="A463" activePane="bottomLeft"/>
-      <selection activeCell="D2" sqref="D2"/>
-      <selection pane="bottomLeft" activeCell="B469" sqref="B469"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
+      <pane ySplit="3912" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3601,13 +3604,15 @@
         <v>44</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>0.625</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.625</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -13313,8 +13318,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13374,12 +13379,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.625</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>1</v>
       </c>
@@ -13414,6 +13415,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13435,6 +13439,10 @@
       <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>589.75</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/OJT/NEW DONE/MIRANDA, BIENVENIDO.xlsx
+++ b/REGULAR/OJT/NEW DONE/MIRANDA, BIENVENIDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1255CB12-5758-4570-ABF5-71F113E008DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="186">
   <si>
     <t>PERIOD</t>
   </si>
@@ -587,12 +586,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>5/2-5,8-23/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1486,7 +1491,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1534,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1598,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1658,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1724,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1787,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1885,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1944,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2009,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2052,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2127,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2313,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2379,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2437,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2503,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2559,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2634,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2677,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2743,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2799,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2897,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2960,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,38 +3026,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K470" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K477" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3061,14 +3066,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3372,7 +3377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3382,7 +3387,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3390,34 +3395,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K470"/>
+  <dimension ref="A2:K477"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
-      <pane ySplit="3912" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A460" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B470" sqref="B470"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3438,7 +3443,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3458,7 +3463,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3480,7 +3485,7 @@
       <c r="J4" s="65"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3488,7 +3493,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3501,7 +3506,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3518,7 +3523,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3562,7 +3567,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>268.875</v>
+        <v>256.125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3572,12 +3577,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>320.875</v>
+        <v>322.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>43</v>
       </c>
@@ -3599,7 +3604,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -3619,7 +3624,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35004</v>
       </c>
@@ -3639,7 +3644,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35034</v>
       </c>
@@ -3659,7 +3664,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>45</v>
       </c>
@@ -3677,7 +3682,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35065</v>
       </c>
@@ -3697,7 +3702,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35096</v>
@@ -3718,7 +3723,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A27" si="0">EDATE(A16,1)</f>
         <v>35125</v>
@@ -3739,7 +3744,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -3760,7 +3765,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -3781,7 +3786,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -3802,7 +3807,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -3823,7 +3828,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -3844,7 +3849,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="50" t="s">
         <v>46</v>
@@ -3862,7 +3867,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35309</v>
@@ -3883,7 +3888,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -3904,7 +3909,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f>EDATE(A25,1)</f>
         <v>35370</v>
@@ -3925,7 +3930,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -3950,7 +3955,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>48</v>
       </c>
@@ -3968,7 +3973,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35431</v>
       </c>
@@ -3988,7 +3993,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35462</v>
@@ -4009,7 +4014,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" ref="A31:A43" si="1">EDATE(A30,1)</f>
         <v>35490</v>
@@ -4030,7 +4035,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35521</v>
@@ -4051,7 +4056,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35551</v>
@@ -4076,7 +4081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4094,7 +4099,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>35582</v>
@@ -4119,7 +4124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -4137,7 +4142,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35612</v>
@@ -4158,7 +4163,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35643</v>
@@ -4179,7 +4184,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -4200,7 +4205,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -4225,7 +4230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4243,7 +4248,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35735</v>
@@ -4264,7 +4269,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -4285,7 +4290,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>54</v>
       </c>
@@ -4303,7 +4308,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35796</v>
       </c>
@@ -4323,7 +4328,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>35827</v>
@@ -4344,7 +4349,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" ref="A47" si="2">EDATE(A46,1)</f>
         <v>35855</v>
@@ -4369,7 +4374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
       <c r="B48" s="11" t="s">
         <v>51</v>
@@ -4391,7 +4396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
         <v>58</v>
       </c>
@@ -4411,7 +4416,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>60</v>
       </c>
@@ -4431,7 +4436,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>35977</v>
       </c>
@@ -4451,7 +4456,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>36008</v>
@@ -4472,7 +4477,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A55" si="3">EDATE(A52,1)</f>
         <v>36039</v>
@@ -4493,7 +4498,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -4514,7 +4519,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -4535,7 +4540,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>36130</v>
@@ -4556,7 +4561,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>62</v>
       </c>
@@ -4574,7 +4579,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -4594,7 +4599,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>36192</v>
@@ -4615,7 +4620,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A68" si="4">EDATE(A59,1)</f>
         <v>36220</v>
@@ -4640,7 +4645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4658,7 +4663,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A60,1)</f>
         <v>36251</v>
@@ -4683,7 +4688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4701,7 +4706,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36281</v>
@@ -4726,7 +4731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4744,7 +4749,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36312</v>
@@ -4765,7 +4770,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -4786,7 +4791,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -4811,7 +4816,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4829,7 +4834,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36404</v>
@@ -4854,7 +4859,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4872,7 +4877,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36434</v>
@@ -4895,7 +4900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>55</v>
@@ -4917,7 +4922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4935,7 +4940,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A72,1)</f>
         <v>36465</v>
@@ -4960,7 +4965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4978,7 +4983,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36495</v>
@@ -4999,7 +5004,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
         <v>73</v>
       </c>
@@ -5017,7 +5022,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -5037,7 +5042,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>36557</v>
@@ -5062,7 +5067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>75</v>
@@ -5084,7 +5089,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>76</v>
@@ -5104,7 +5109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5122,7 +5127,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A80,1)</f>
         <v>36586</v>
@@ -5147,7 +5152,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5165,7 +5170,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>36617</v>
@@ -5190,7 +5195,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5208,7 +5213,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36647</v>
@@ -5229,7 +5234,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A96" si="5">EDATE(A88,1)</f>
         <v>36678</v>
@@ -5250,7 +5255,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -5271,7 +5276,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -5292,7 +5297,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -5317,7 +5322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>78</v>
@@ -5337,7 +5342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5355,7 +5360,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>36800</v>
@@ -5376,7 +5381,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -5397,7 +5402,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A96,1)</f>
         <v>36861</v>
@@ -5422,7 +5427,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
         <v>81</v>
       </c>
@@ -5440,7 +5445,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>36892</v>
       </c>
@@ -5460,7 +5465,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A99,1)</f>
         <v>36923</v>
@@ -5483,7 +5488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5501,7 +5506,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36951</v>
@@ -5522,7 +5527,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" ref="A103:A108" si="6">EDATE(A102,1)</f>
         <v>36982</v>
@@ -5543,7 +5548,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -5564,7 +5569,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -5585,7 +5590,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -5606,7 +5611,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -5627,7 +5632,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -5652,7 +5657,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -5674,7 +5679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>76</v>
@@ -5694,7 +5699,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
@@ -5712,7 +5717,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A108,1)</f>
         <v>37165</v>
@@ -5737,7 +5742,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5755,7 +5760,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37196</v>
@@ -5780,7 +5785,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>76</v>
@@ -5800,7 +5805,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -5818,7 +5823,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -5839,7 +5844,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
         <v>87</v>
       </c>
@@ -5857,7 +5862,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37257</v>
       </c>
@@ -5881,7 +5886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5899,7 +5904,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37288</v>
@@ -5920,7 +5925,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" ref="A122:A132" si="7">EDATE(A121,1)</f>
         <v>37316</v>
@@ -5941,7 +5946,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -5962,7 +5967,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -5987,7 +5992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6005,7 +6010,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37408</v>
@@ -6026,7 +6031,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6047,7 +6052,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6068,7 +6073,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6089,7 +6094,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6110,7 +6115,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6131,7 +6136,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6158,7 +6163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>69</v>
@@ -6178,7 +6183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="49" t="s">
         <v>92</v>
       </c>
@@ -6196,7 +6201,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>37622</v>
       </c>
@@ -6216,7 +6221,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A135,1)</f>
         <v>37653</v>
@@ -6241,7 +6246,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6259,7 +6264,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>37681</v>
@@ -6280,7 +6285,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A148" si="8">EDATE(A138,1)</f>
         <v>37712</v>
@@ -6301,7 +6306,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -6328,7 +6333,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>49</v>
@@ -6350,7 +6355,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37773</v>
@@ -6371,7 +6376,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -6392,7 +6397,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>37834</v>
@@ -6413,7 +6418,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>37865</v>
@@ -6440,7 +6445,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A145,1)</f>
         <v>37895</v>
@@ -6467,7 +6472,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>37926</v>
@@ -6488,7 +6493,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>37956</v>
@@ -6513,7 +6518,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
         <v>99</v>
       </c>
@@ -6531,7 +6536,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>37987</v>
       </c>
@@ -6551,7 +6556,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>38018</v>
@@ -6572,7 +6577,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" ref="A152:A161" si="9">EDATE(A151,1)</f>
         <v>38047</v>
@@ -6593,7 +6598,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>38078</v>
@@ -6614,7 +6619,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -6635,7 +6640,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="9"/>
         <v>38139</v>
@@ -6656,7 +6661,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="9"/>
         <v>38169</v>
@@ -6683,7 +6688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A156,1)</f>
         <v>38200</v>
@@ -6704,7 +6709,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="9"/>
         <v>38231</v>
@@ -6725,7 +6730,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="9"/>
         <v>38261</v>
@@ -6746,7 +6751,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="9"/>
         <v>38292</v>
@@ -6767,7 +6772,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>38322</v>
@@ -6792,7 +6797,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="49" t="s">
         <v>102</v>
       </c>
@@ -6810,7 +6815,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38353</v>
       </c>
@@ -6830,7 +6835,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A163,1)</f>
         <v>38384</v>
@@ -6851,7 +6856,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" ref="A165:A174" si="10">EDATE(A164,1)</f>
         <v>38412</v>
@@ -6872,7 +6877,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>38443</v>
@@ -6893,7 +6898,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -6914,7 +6919,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -6935,7 +6940,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -6956,7 +6961,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -6977,7 +6982,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -6998,7 +7003,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>38626</v>
@@ -7019,7 +7024,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="10"/>
         <v>38657</v>
@@ -7040,7 +7045,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -7051,7 +7056,9 @@
       <c r="C174" s="13">
         <v>1.25</v>
       </c>
-      <c r="D174" s="39"/>
+      <c r="D174" s="39">
+        <v>5</v>
+      </c>
       <c r="E174" s="9"/>
       <c r="F174" s="20"/>
       <c r="G174" s="13">
@@ -7063,7 +7070,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="49" t="s">
         <v>103</v>
       </c>
@@ -7081,7 +7088,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38718</v>
       </c>
@@ -7101,7 +7108,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
         <f>EDATE(A176,1)</f>
         <v>38749</v>
@@ -7122,7 +7129,7 @@
       <c r="J177" s="12"/>
       <c r="K177" s="15"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41">
         <f t="shared" ref="A178:A187" si="11">EDATE(A177,1)</f>
         <v>38777</v>
@@ -7143,7 +7150,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41">
         <f t="shared" si="11"/>
         <v>38808</v>
@@ -7164,7 +7171,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41">
         <f t="shared" si="11"/>
         <v>38838</v>
@@ -7185,7 +7192,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -7206,7 +7213,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -7227,7 +7234,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41">
         <f t="shared" si="11"/>
         <v>38930</v>
@@ -7248,7 +7255,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -7269,7 +7276,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -7290,7 +7297,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -7311,7 +7318,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41">
         <f t="shared" si="11"/>
         <v>39052</v>
@@ -7336,7 +7343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41"/>
       <c r="B188" s="20" t="s">
         <v>105</v>
@@ -7358,7 +7365,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="57" t="s">
         <v>106</v>
       </c>
@@ -7376,7 +7383,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39083</v>
       </c>
@@ -7396,7 +7403,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f>EDATE(A190,1)</f>
         <v>39114</v>
@@ -7417,7 +7424,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A207" si="12">EDATE(A191,1)</f>
         <v>39142</v>
@@ -7440,7 +7447,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7458,7 +7465,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f>EDATE(A192,1)</f>
         <v>39173</v>
@@ -7479,7 +7486,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="12"/>
         <v>39203</v>
@@ -7500,7 +7507,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -7525,7 +7532,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7543,7 +7550,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>39264</v>
@@ -7568,7 +7575,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>76</v>
@@ -7588,7 +7595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7606,7 +7613,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39295</v>
@@ -7633,7 +7640,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>109</v>
@@ -7655,7 +7662,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>75</v>
@@ -7677,7 +7684,7 @@
         <v>46966</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A201,1)</f>
         <v>39326</v>
@@ -7698,7 +7705,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A204,1)</f>
         <v>39356</v>
@@ -7723,7 +7730,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>39387</v>
@@ -7744,7 +7751,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="12"/>
         <v>39417</v>
@@ -7765,7 +7772,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="49" t="s">
         <v>112</v>
       </c>
@@ -7783,7 +7790,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39448</v>
       </c>
@@ -7803,7 +7810,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A209,1)</f>
         <v>39479</v>
@@ -7824,7 +7831,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" ref="A211:A218" si="13">EDATE(A210,1)</f>
         <v>39508</v>
@@ -7845,7 +7852,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="13"/>
         <v>39539</v>
@@ -7866,7 +7873,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="13"/>
         <v>39569</v>
@@ -7887,7 +7894,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="13"/>
         <v>39600</v>
@@ -7910,7 +7917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
@@ -7928,7 +7935,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f>EDATE(A214,1)</f>
         <v>39630</v>
@@ -7949,7 +7956,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="13"/>
         <v>39661</v>
@@ -7970,7 +7977,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="13"/>
         <v>39692</v>
@@ -7995,7 +8002,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -8013,7 +8020,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39722</v>
@@ -8038,7 +8045,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -8056,7 +8063,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39753</v>
@@ -8079,7 +8086,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -8097,7 +8104,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39783</v>
@@ -8118,7 +8125,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="49" t="s">
         <v>117</v>
       </c>
@@ -8136,7 +8143,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39814</v>
       </c>
@@ -8156,7 +8163,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A226,1)</f>
         <v>39845</v>
@@ -8179,7 +8186,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -8197,7 +8204,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39873</v>
@@ -8220,7 +8227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13">
@@ -8238,7 +8245,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A229,1)</f>
         <v>39904</v>
@@ -8259,7 +8266,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" ref="A232:A239" si="14">EDATE(A231,1)</f>
         <v>39934</v>
@@ -8280,7 +8287,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="14"/>
         <v>39965</v>
@@ -8303,7 +8310,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8321,7 +8328,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39995</v>
@@ -8342,7 +8349,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="14"/>
         <v>40026</v>
@@ -8363,7 +8370,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="14"/>
         <v>40057</v>
@@ -8384,7 +8391,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="14"/>
         <v>40087</v>
@@ -8405,7 +8412,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="14"/>
         <v>40118</v>
@@ -8426,7 +8433,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A239,1)</f>
         <v>40148</v>
@@ -8451,7 +8458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8469,7 +8476,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="49" t="s">
         <v>122</v>
       </c>
@@ -8487,7 +8494,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40179</v>
       </c>
@@ -8511,7 +8518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8529,7 +8536,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40210</v>
@@ -8554,7 +8561,7 @@
         <v>47119</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -8574,7 +8581,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>75</v>
@@ -8596,7 +8603,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>76</v>
@@ -8616,7 +8623,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8634,7 +8641,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A245,1)</f>
         <v>40238</v>
@@ -8655,7 +8662,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" ref="A251:A256" si="15">EDATE(A250,1)</f>
         <v>40269</v>
@@ -8676,7 +8683,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="15"/>
         <v>40299</v>
@@ -8697,7 +8704,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="15"/>
         <v>40330</v>
@@ -8718,7 +8725,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="15"/>
         <v>40360</v>
@@ -8739,7 +8746,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="15"/>
         <v>40391</v>
@@ -8760,7 +8767,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="15"/>
         <v>40422</v>
@@ -8785,7 +8792,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>75</v>
@@ -8807,7 +8814,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>75</v>
@@ -8829,7 +8836,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -8847,7 +8854,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>40452</v>
@@ -8872,7 +8879,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13">
@@ -8890,7 +8897,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>40483</v>
@@ -8913,7 +8920,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -8931,7 +8938,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>40513</v>
@@ -8952,7 +8959,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="49" t="s">
         <v>130</v>
       </c>
@@ -8970,7 +8977,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40544</v>
       </c>
@@ -8992,7 +8999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9010,7 +9017,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40575</v>
@@ -9031,7 +9038,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" ref="A269:A281" si="16">EDATE(A268,1)</f>
         <v>40603</v>
@@ -9052,7 +9059,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="16"/>
         <v>40634</v>
@@ -9073,7 +9080,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="16"/>
         <v>40664</v>
@@ -9098,7 +9105,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>40695</v>
@@ -9121,7 +9128,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>133</v>
@@ -9143,7 +9150,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>80</v>
@@ -9165,7 +9172,7 @@
         <v>47270</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13">
@@ -9183,7 +9190,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A272,1)</f>
         <v>40725</v>
@@ -9204,7 +9211,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="16"/>
         <v>40756</v>
@@ -9227,7 +9234,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>47</v>
@@ -9249,7 +9256,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9267,7 +9274,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A277,1)</f>
         <v>40787</v>
@@ -9288,7 +9295,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="16"/>
         <v>40817</v>
@@ -9313,7 +9320,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>138</v>
@@ -9335,7 +9342,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9353,7 +9360,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>40848</v>
@@ -9378,7 +9385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9396,7 +9403,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>40878</v>
@@ -9421,7 +9428,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>55</v>
@@ -9443,7 +9450,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>138</v>
@@ -9465,7 +9472,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13">
@@ -9483,7 +9490,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="49" t="s">
         <v>143</v>
       </c>
@@ -9501,7 +9508,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40909</v>
       </c>
@@ -9521,7 +9528,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A291,1)</f>
         <v>40940</v>
@@ -9544,7 +9551,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>55</v>
@@ -9566,7 +9573,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>105</v>
@@ -9588,7 +9595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A292,1)</f>
         <v>40969</v>
@@ -9609,7 +9616,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" ref="A296:A314" si="17">EDATE(A295,1)</f>
         <v>41000</v>
@@ -9632,7 +9639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13">
@@ -9650,7 +9657,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41030</v>
@@ -9675,7 +9682,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -9693,7 +9700,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41061</v>
@@ -9718,7 +9725,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>51</v>
@@ -9738,7 +9745,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20"/>
       <c r="C302" s="13">
@@ -9756,7 +9763,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>41091</v>
@@ -9777,7 +9784,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>41122</v>
@@ -9798,7 +9805,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>41153</v>
@@ -9823,7 +9830,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>80</v>
@@ -9845,7 +9852,7 @@
         <v>46997</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>75</v>
@@ -9867,7 +9874,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>75</v>
@@ -9889,7 +9896,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -9907,7 +9914,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A305,1)</f>
         <v>41183</v>
@@ -9932,7 +9939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>75</v>
@@ -9952,7 +9959,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -9970,7 +9977,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>41214</v>
@@ -9991,7 +9998,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="17"/>
         <v>41244</v>
@@ -10016,7 +10023,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10038,7 +10045,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13">
@@ -10056,7 +10063,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="49" t="s">
         <v>150</v>
       </c>
@@ -10074,7 +10081,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41275</v>
       </c>
@@ -10096,7 +10103,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>80</v>
@@ -10118,7 +10125,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>76</v>
@@ -10138,7 +10145,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13">
@@ -10156,7 +10163,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A318,1)</f>
         <v>41306</v>
@@ -10181,7 +10188,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>75</v>
@@ -10203,7 +10210,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>138</v>
@@ -10225,7 +10232,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -10243,7 +10250,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A322,1)</f>
         <v>41334</v>
@@ -10268,7 +10275,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13">
@@ -10286,7 +10293,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A326,1)</f>
         <v>41365</v>
@@ -10307,7 +10314,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" ref="A329:A338" si="18">EDATE(A328,1)</f>
         <v>41395</v>
@@ -10328,7 +10335,7 @@
       <c r="J329" s="12"/>
       <c r="K329" s="15"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="18"/>
         <v>41426</v>
@@ -10353,7 +10360,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -10371,7 +10378,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>41456</v>
@@ -10392,7 +10399,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="18"/>
         <v>41487</v>
@@ -10413,7 +10420,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="18"/>
         <v>41518</v>
@@ -10434,7 +10441,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="18"/>
         <v>41548</v>
@@ -10459,7 +10466,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -10477,7 +10484,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>41579</v>
@@ -10498,7 +10505,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -10519,7 +10526,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="49" t="s">
         <v>157</v>
       </c>
@@ -10537,7 +10544,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41640</v>
       </c>
@@ -10557,7 +10564,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A340,1)</f>
         <v>41671</v>
@@ -10578,7 +10585,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A351" si="19">EDATE(A341,1)</f>
         <v>41699</v>
@@ -10599,7 +10606,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="19"/>
         <v>41730</v>
@@ -10620,7 +10627,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -10641,7 +10648,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="19"/>
         <v>41791</v>
@@ -10662,7 +10669,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -10683,7 +10690,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -10704,7 +10711,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="19"/>
         <v>41883</v>
@@ -10725,7 +10732,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -10752,7 +10759,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -10773,7 +10780,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" si="19"/>
         <v>41974</v>
@@ -10794,7 +10801,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="49" t="s">
         <v>156</v>
       </c>
@@ -10812,7 +10819,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42005</v>
       </c>
@@ -10832,7 +10839,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A353,1)</f>
         <v>42036</v>
@@ -10853,9 +10860,9 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
-        <f t="shared" ref="A355:A365" si="20">EDATE(A354,1)</f>
+        <f t="shared" ref="A355:A364" si="20">EDATE(A354,1)</f>
         <v>42064</v>
       </c>
       <c r="B355" s="20"/>
@@ -10874,7 +10881,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="20"/>
         <v>42095</v>
@@ -10895,7 +10902,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="20"/>
         <v>42125</v>
@@ -10916,7 +10923,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" si="20"/>
         <v>42156</v>
@@ -10937,7 +10944,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -10958,7 +10965,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -10979,7 +10986,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -11000,7 +11007,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -11008,13 +11015,15 @@
       <c r="B362" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C362" s="13"/>
+      <c r="C362" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D362" s="39"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G362" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H362" s="39">
         <v>3</v>
@@ -11025,8 +11034,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="40"/>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="40">
+        <f>EDATE(A362,1)</f>
+        <v>42309</v>
+      </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13">
         <v>1.25</v>
@@ -11043,16 +11055,20 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
-        <f>EDATE(A362,1)</f>
-        <v>42309</v>
-      </c>
-      <c r="B364" s="20"/>
+        <f t="shared" si="20"/>
+        <v>42339</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C364" s="13">
         <v>1.25</v>
       </c>
-      <c r="D364" s="39"/>
+      <c r="D364" s="39">
+        <v>5</v>
+      </c>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
       <c r="G364" s="13">
@@ -11064,52 +11080,48 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="40">
-        <f t="shared" si="20"/>
-        <v>42339</v>
-      </c>
-      <c r="B365" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C365" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D365" s="39">
-        <v>5</v>
-      </c>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="39"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H365" s="39"/>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="49" t="s">
-        <v>159</v>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="40">
+        <v>42370</v>
       </c>
       <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
+      <c r="C366" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D366" s="39"/>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G366" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
-        <v>42370</v>
+        <f>EDATE(A366,1)</f>
+        <v>42401</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -11127,52 +11139,52 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
-        <f>EDATE(A367,1)</f>
-        <v>42401</v>
-      </c>
-      <c r="B368" s="20"/>
-      <c r="C368" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" ref="A368:A378" si="21">EDATE(A367,1)</f>
+        <v>42430</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C368" s="13"/>
       <c r="D368" s="39"/>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="40">
-        <f t="shared" ref="A369:A379" si="21">EDATE(A368,1)</f>
-        <v>42430</v>
-      </c>
-      <c r="B369" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C369" s="13"/>
+      <c r="K368" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="40"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D369" s="39"/>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G369" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
-      <c r="K369" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370" s="40"/>
+      <c r="K369" s="20"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="40">
+        <f>EDATE(A368,1)</f>
+        <v>42461</v>
+      </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13">
         <v>1.25</v>
@@ -11189,10 +11201,10 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <f>EDATE(A369,1)</f>
-        <v>42461</v>
+        <f t="shared" si="21"/>
+        <v>42491</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13">
@@ -11210,10 +11222,10 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="21"/>
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -11231,10 +11243,10 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="21"/>
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13">
@@ -11252,10 +11264,10 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="21"/>
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13">
@@ -11273,10 +11285,10 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="21"/>
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13">
@@ -11294,10 +11306,10 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f t="shared" si="21"/>
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13">
@@ -11315,10 +11327,10 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="21"/>
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13">
@@ -11336,38 +11348,39 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="21"/>
-        <v>42675</v>
-      </c>
-      <c r="B378" s="20"/>
-      <c r="C378" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D378" s="39"/>
+        <v>42705</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C378" s="13"/>
+      <c r="D378" s="39">
+        <v>5</v>
+      </c>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="40">
-        <f t="shared" si="21"/>
-        <v>42705</v>
-      </c>
+      <c r="K378" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="C379" s="13"/>
       <c r="D379" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
@@ -11379,70 +11392,69 @@
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
-      <c r="B380" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C380" s="13"/>
-      <c r="D380" s="39">
-        <v>3</v>
-      </c>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D380" s="39"/>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A381" s="40"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="49" t="s">
+        <v>164</v>
+      </c>
       <c r="B381" s="20"/>
-      <c r="C381" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C381" s="13"/>
       <c r="D381" s="39"/>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A382" s="49" t="s">
-        <v>164</v>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="40">
+        <v>42736</v>
       </c>
       <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D382" s="39"/>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>42736</v>
+        <f>EDATE(A382,1)</f>
+        <v>42767</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13">
@@ -11460,10 +11472,10 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <f>EDATE(A383,1)</f>
-        <v>42767</v>
+        <f t="shared" ref="A384:A393" si="22">EDATE(A383,1)</f>
+        <v>42795</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -11481,10 +11493,10 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <f t="shared" ref="A385:A394" si="22">EDATE(A384,1)</f>
-        <v>42795</v>
+        <f t="shared" si="22"/>
+        <v>42826</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13">
@@ -11502,10 +11514,10 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="22"/>
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13">
@@ -11523,10 +11535,10 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="22"/>
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13">
@@ -11544,10 +11556,10 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="22"/>
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -11565,10 +11577,10 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="22"/>
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13">
@@ -11586,10 +11598,10 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="22"/>
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13">
@@ -11607,10 +11619,10 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="22"/>
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13">
@@ -11628,10 +11640,10 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="22"/>
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13">
@@ -11649,39 +11661,38 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="22"/>
-        <v>43040</v>
-      </c>
-      <c r="B393" s="20"/>
-      <c r="C393" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D393" s="39"/>
+        <v>43070</v>
+      </c>
+      <c r="B393" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C393" s="13"/>
+      <c r="D393" s="39">
+        <v>5</v>
+      </c>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G393" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H393" s="39"/>
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
-      <c r="K393" s="20"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A394" s="40">
-        <f t="shared" si="22"/>
-        <v>43070</v>
-      </c>
+      <c r="K393" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="C394" s="13"/>
-      <c r="D394" s="39">
-        <v>5</v>
-      </c>
+      <c r="D394" s="39"/>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
       <c r="G394" s="13" t="str">
@@ -11692,68 +11703,69 @@
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
       <c r="K394" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
-      <c r="B395" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C395" s="13"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D395" s="39"/>
       <c r="E395" s="9"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G395" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H395" s="39"/>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
-      <c r="K395" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A396" s="40"/>
+      <c r="K395" s="20"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="49" t="s">
+        <v>167</v>
+      </c>
       <c r="B396" s="20"/>
-      <c r="C396" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C396" s="13"/>
       <c r="D396" s="39"/>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G396" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H396" s="39"/>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A397" s="49" t="s">
-        <v>167</v>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="40">
+        <v>43101</v>
       </c>
       <c r="B397" s="20"/>
-      <c r="C397" s="13"/>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>43101</v>
+        <f>EDATE(A397,1)</f>
+        <v>43132</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -11771,39 +11783,38 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <f>EDATE(A398,1)</f>
-        <v>43132</v>
-      </c>
-      <c r="B399" s="20"/>
-      <c r="C399" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D399" s="39"/>
+        <f t="shared" ref="A399:A411" si="23">EDATE(A398,1)</f>
+        <v>43160</v>
+      </c>
+      <c r="B399" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C399" s="13"/>
+      <c r="D399" s="39">
+        <v>3</v>
+      </c>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G399" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="20"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A400" s="40">
-        <f t="shared" ref="A400:A412" si="23">EDATE(A399,1)</f>
-        <v>43160</v>
-      </c>
+      <c r="K399" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C400" s="13"/>
-      <c r="D400" s="39">
-        <v>3</v>
-      </c>
+      <c r="D400" s="39"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
       <c r="G400" s="13" t="str">
@@ -11814,31 +11825,32 @@
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
       <c r="K400" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
-      <c r="B401" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C401" s="13"/>
+      <c r="B401" s="20"/>
+      <c r="C401" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G401" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A402" s="40"/>
+      <c r="K401" s="20"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="40">
+        <f>EDATE(A399,1)</f>
+        <v>43191</v>
+      </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13">
         <v>1.25</v>
@@ -11855,10 +11867,10 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <f>EDATE(A400,1)</f>
-        <v>43191</v>
+        <f t="shared" si="23"/>
+        <v>43221</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13">
@@ -11876,10 +11888,10 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="23"/>
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13">
@@ -11897,10 +11909,10 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="23"/>
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13">
@@ -11918,10 +11930,10 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="23"/>
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13">
@@ -11939,10 +11951,10 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="23"/>
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13">
@@ -11960,54 +11972,54 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="23"/>
-        <v>43344</v>
-      </c>
-      <c r="B408" s="20"/>
-      <c r="C408" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D408" s="39"/>
+        <v>43374</v>
+      </c>
+      <c r="B408" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C408" s="13"/>
+      <c r="D408" s="39">
+        <v>3</v>
+      </c>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H408" s="39"/>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="20"/>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A409" s="40">
-        <f t="shared" si="23"/>
-        <v>43374</v>
-      </c>
-      <c r="B409" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C409" s="13"/>
-      <c r="D409" s="39">
-        <v>3</v>
-      </c>
+      <c r="K408" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="40"/>
+      <c r="B409" s="20"/>
+      <c r="C409" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D409" s="39"/>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G409" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H409" s="39"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A410" s="40"/>
+      <c r="K409" s="20"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="40">
+        <f>EDATE(A408,1)</f>
+        <v>43405</v>
+      </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13">
         <v>1.25</v>
@@ -12024,10 +12036,10 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <f>EDATE(A409,1)</f>
-        <v>43405</v>
+        <f t="shared" si="23"/>
+        <v>43435</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13">
@@ -12045,48 +12057,48 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A412" s="40">
-        <f t="shared" si="23"/>
-        <v>43435</v>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="49" t="s">
+        <v>170</v>
       </c>
       <c r="B412" s="20"/>
-      <c r="C412" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C412" s="13"/>
       <c r="D412" s="39"/>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G412" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H412" s="39"/>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A413" s="49" t="s">
-        <v>170</v>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="40">
+        <v>43466</v>
       </c>
       <c r="B413" s="20"/>
-      <c r="C413" s="13"/>
+      <c r="C413" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D413" s="39"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G413" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H413" s="39"/>
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>43466</v>
+        <f>EDATE(A413,1)</f>
+        <v>43497</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13">
@@ -12104,10 +12116,10 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <f>EDATE(A414,1)</f>
-        <v>43497</v>
+        <f t="shared" ref="A415:A424" si="24">EDATE(A414,1)</f>
+        <v>43525</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13">
@@ -12125,10 +12137,10 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <f t="shared" ref="A416:A425" si="24">EDATE(A415,1)</f>
-        <v>43525</v>
+        <f t="shared" si="24"/>
+        <v>43556</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13">
@@ -12146,10 +12158,10 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="24"/>
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13">
@@ -12167,10 +12179,10 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" si="24"/>
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13">
@@ -12188,10 +12200,10 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="24"/>
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13">
@@ -12209,10 +12221,10 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="24"/>
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13">
@@ -12230,10 +12242,10 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="24"/>
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13">
@@ -12251,10 +12263,10 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="24"/>
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -12272,10 +12284,10 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <f t="shared" si="24"/>
-        <v>43739</v>
+        <f>EDATE(A422,1)</f>
+        <v>43770</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13">
@@ -12293,16 +12305,20 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <f>EDATE(A423,1)</f>
-        <v>43770</v>
-      </c>
-      <c r="B424" s="20"/>
+        <f t="shared" si="24"/>
+        <v>43800</v>
+      </c>
+      <c r="B424" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C424" s="13">
         <v>1.25</v>
       </c>
-      <c r="D424" s="39"/>
+      <c r="D424" s="39">
+        <v>5</v>
+      </c>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
       <c r="G424" s="13">
@@ -12314,36 +12330,31 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A425" s="40">
-        <f t="shared" si="24"/>
-        <v>43800</v>
-      </c>
-      <c r="B425" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C425" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D425" s="39">
-        <v>5</v>
-      </c>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="39"/>
       <c r="E425" s="9"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G425" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H425" s="39"/>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A426" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B426" s="20"/>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B426" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
       <c r="E426" s="9"/>
@@ -12355,32 +12366,33 @@
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
-      <c r="K426" s="20"/>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A427" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B427" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C427" s="13"/>
+      <c r="K426" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="40"/>
+      <c r="B427" s="20"/>
+      <c r="C427" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D427" s="39"/>
       <c r="E427" s="9"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G427" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H427" s="39"/>
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
-      <c r="K427" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A428" s="40"/>
+      <c r="K427" s="20"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="40">
+        <f>EDATE(A426,1)</f>
+        <v>43862</v>
+      </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
         <v>1.25</v>
@@ -12397,10 +12409,10 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <f>EDATE(A427,1)</f>
-        <v>43862</v>
+        <f t="shared" ref="A429:A437" si="25">EDATE(A428,1)</f>
+        <v>43891</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13">
@@ -12418,10 +12430,10 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <f t="shared" ref="A430:A438" si="25">EDATE(A429,1)</f>
-        <v>43891</v>
+        <f t="shared" si="25"/>
+        <v>43922</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13">
@@ -12439,10 +12451,10 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="25"/>
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -12460,10 +12472,10 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="25"/>
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13">
@@ -12481,10 +12493,10 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="25"/>
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13">
@@ -12502,10 +12514,10 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="25"/>
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -12523,10 +12535,10 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="25"/>
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13">
@@ -12544,10 +12556,10 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="25"/>
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13">
@@ -12565,10 +12577,10 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="25"/>
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13">
@@ -12586,16 +12598,20 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <f t="shared" si="25"/>
-        <v>44136</v>
-      </c>
-      <c r="B438" s="20"/>
+        <f>EDATE(A437,1)</f>
+        <v>44166</v>
+      </c>
+      <c r="B438" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C438" s="13">
         <v>1.25</v>
       </c>
-      <c r="D438" s="39"/>
+      <c r="D438" s="39">
+        <v>5</v>
+      </c>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
       <c r="G438" s="13">
@@ -12607,52 +12623,48 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A439" s="40">
-        <f>EDATE(A438,1)</f>
-        <v>44166</v>
-      </c>
-      <c r="B439" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C439" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D439" s="39">
-        <v>5</v>
-      </c>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B439" s="20"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="39"/>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G439" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H439" s="39"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A440" s="49" t="s">
-        <v>174</v>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="40">
+        <v>44197</v>
       </c>
       <c r="B440" s="20"/>
-      <c r="C440" s="13"/>
+      <c r="C440" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D440" s="39"/>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G440" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H440" s="39"/>
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>44197</v>
+        <f>EDATE(A440,1)</f>
+        <v>44228</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -12670,10 +12682,10 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <f>EDATE(A441,1)</f>
-        <v>44228</v>
+        <f t="shared" ref="A442:A451" si="26">EDATE(A441,1)</f>
+        <v>44256</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -12691,10 +12703,10 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <f t="shared" ref="A443:A452" si="26">EDATE(A442,1)</f>
-        <v>44256</v>
+        <f t="shared" si="26"/>
+        <v>44287</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13">
@@ -12712,10 +12724,10 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="26"/>
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13">
@@ -12733,10 +12745,10 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="26"/>
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13">
@@ -12754,10 +12766,10 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="26"/>
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13">
@@ -12775,10 +12787,10 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="26"/>
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13">
@@ -12796,10 +12808,10 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f t="shared" si="26"/>
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13">
@@ -12817,10 +12829,10 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="26"/>
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13">
@@ -12838,94 +12850,94 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="26"/>
-        <v>44470</v>
-      </c>
-      <c r="B450" s="20"/>
+        <v>44501</v>
+      </c>
+      <c r="B450" s="15"/>
       <c r="C450" s="13">
         <v>1.25</v>
       </c>
-      <c r="D450" s="39"/>
-      <c r="E450" s="9"/>
-      <c r="F450" s="20"/>
-      <c r="G450" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H450" s="39"/>
-      <c r="I450" s="9"/>
-      <c r="J450" s="11"/>
-      <c r="K450" s="20"/>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D450" s="43"/>
+      <c r="E450" s="56"/>
+      <c r="F450" s="15"/>
+      <c r="G450" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H450" s="43"/>
+      <c r="I450" s="56"/>
+      <c r="J450" s="12"/>
+      <c r="K450" s="15"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="26"/>
-        <v>44501</v>
-      </c>
-      <c r="B451" s="15"/>
+        <v>44531</v>
+      </c>
+      <c r="B451" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C451" s="13">
         <v>1.25</v>
       </c>
-      <c r="D451" s="43"/>
-      <c r="E451" s="56"/>
-      <c r="F451" s="15"/>
-      <c r="G451" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H451" s="43"/>
-      <c r="I451" s="56"/>
-      <c r="J451" s="12"/>
-      <c r="K451" s="15"/>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A452" s="40">
-        <f t="shared" si="26"/>
-        <v>44531</v>
-      </c>
-      <c r="B452" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C452" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D452" s="39">
+      <c r="D451" s="39">
         <v>5</v>
       </c>
+      <c r="E451" s="9"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H451" s="39"/>
+      <c r="I451" s="9"/>
+      <c r="J451" s="11"/>
+      <c r="K451" s="20"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B452" s="20"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="39"/>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G452" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A453" s="49" t="s">
-        <v>175</v>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" s="40">
+        <v>44562</v>
       </c>
       <c r="B453" s="20"/>
-      <c r="C453" s="13"/>
+      <c r="C453" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D453" s="39"/>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G453" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H453" s="39"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>44562</v>
+        <f>EDATE(A453,1)</f>
+        <v>44593</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13">
@@ -12943,57 +12955,56 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f>EDATE(A454,1)</f>
-        <v>44593</v>
-      </c>
-      <c r="B455" s="20"/>
+        <v>44621</v>
+      </c>
+      <c r="B455" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="C455" s="13">
         <v>1.25</v>
       </c>
-      <c r="D455" s="39"/>
-      <c r="E455" s="9"/>
-      <c r="F455" s="20"/>
-      <c r="G455" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H455" s="39"/>
-      <c r="I455" s="9"/>
-      <c r="J455" s="11"/>
-      <c r="K455" s="20"/>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D455" s="43">
+        <v>5</v>
+      </c>
+      <c r="E455" s="56"/>
+      <c r="F455" s="15"/>
+      <c r="G455" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H455" s="43"/>
+      <c r="I455" s="56"/>
+      <c r="J455" s="12"/>
+      <c r="K455" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <f>EDATE(A455,1)</f>
-        <v>44621</v>
-      </c>
-      <c r="B456" s="15" t="s">
-        <v>161</v>
-      </c>
+        <v>44652</v>
+      </c>
+      <c r="B456" s="20"/>
       <c r="C456" s="13">
         <v>1.25</v>
       </c>
-      <c r="D456" s="43">
-        <v>5</v>
-      </c>
-      <c r="E456" s="56"/>
-      <c r="F456" s="15"/>
-      <c r="G456" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H456" s="43"/>
-      <c r="I456" s="56"/>
-      <c r="J456" s="12"/>
-      <c r="K456" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D456" s="39"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H456" s="39"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="20"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13">
@@ -13011,9 +13022,9 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13">
@@ -13031,9 +13042,9 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13">
@@ -13051,9 +13062,9 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13">
@@ -13071,9 +13082,9 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13">
@@ -13091,9 +13102,9 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13">
@@ -13111,9 +13122,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13">
@@ -13131,9 +13142,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13">
@@ -13151,53 +13162,57 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A465" s="40">
-        <v>44896</v>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="B465" s="20"/>
-      <c r="C465" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C465" s="13"/>
       <c r="D465" s="39"/>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G465" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H465" s="39"/>
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A466" s="49" t="s">
-        <v>177</v>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="40">
+        <v>44927</v>
       </c>
       <c r="B466" s="20"/>
-      <c r="C466" s="13"/>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D466" s="39"/>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H466" s="39"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B467" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B467" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="C467" s="13">
         <v>1.25</v>
       </c>
-      <c r="D467" s="39"/>
+      <c r="D467" s="39">
+        <v>5</v>
+      </c>
       <c r="E467" s="9"/>
       <c r="F467" s="20"/>
       <c r="G467" s="13">
@@ -13207,21 +13222,19 @@
       <c r="H467" s="39"/>
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
-      <c r="K467" s="20"/>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K467" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B468" s="20" t="s">
-        <v>178</v>
-      </c>
+        <v>44986</v>
+      </c>
+      <c r="B468" s="20"/>
       <c r="C468" s="13">
         <v>1.25</v>
       </c>
-      <c r="D468" s="39">
-        <v>5</v>
-      </c>
+      <c r="D468" s="39"/>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
       <c r="G468" s="13">
@@ -13231,47 +13244,161 @@
       <c r="H468" s="39"/>
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
-      <c r="K468" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K468" s="20"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B469" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B469" s="15" t="s">
+        <v>184</v>
+      </c>
       <c r="C469" s="13">
         <v>1.25</v>
       </c>
-      <c r="D469" s="39"/>
-      <c r="E469" s="9"/>
-      <c r="F469" s="20"/>
-      <c r="G469" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H469" s="39"/>
-      <c r="I469" s="9"/>
-      <c r="J469" s="11"/>
-      <c r="K469" s="20"/>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A470" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B470" s="15"/>
-      <c r="C470" s="42"/>
-      <c r="D470" s="43"/>
-      <c r="E470" s="56"/>
-      <c r="F470" s="15"/>
-      <c r="G470" s="42" t="str">
+      <c r="D469" s="43">
+        <v>9</v>
+      </c>
+      <c r="E469" s="56"/>
+      <c r="F469" s="15"/>
+      <c r="G469" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H469" s="43"/>
+      <c r="I469" s="56"/>
+      <c r="J469" s="12"/>
+      <c r="K469" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="40"/>
+      <c r="B470" s="20"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="39"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H470" s="43"/>
-      <c r="I470" s="56"/>
-      <c r="J470" s="12"/>
-      <c r="K470" s="15"/>
+      <c r="H470" s="39"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="11"/>
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="40"/>
+      <c r="B471" s="20"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="39"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H471" s="39"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="40"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="13"/>
+      <c r="D472" s="39"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H472" s="39"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="20"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="40"/>
+      <c r="B473" s="20"/>
+      <c r="C473" s="13"/>
+      <c r="D473" s="39"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H473" s="39"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="11"/>
+      <c r="K473" s="20"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="40"/>
+      <c r="B474" s="20"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="39"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H474" s="39"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="40"/>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="39"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="39"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="40"/>
+      <c r="B476" s="20"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="39"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="39"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="41"/>
+      <c r="B477" s="15"/>
+      <c r="C477" s="42"/>
+      <c r="D477" s="43"/>
+      <c r="E477" s="56"/>
+      <c r="F477" s="15"/>
+      <c r="G477" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="43"/>
+      <c r="I477" s="56"/>
+      <c r="J477" s="12"/>
+      <c r="K477" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13288,10 +13415,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13314,29 +13441,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
@@ -13349,7 +13476,7 @@
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13378,7 +13505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13404,17 +13531,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -13438,10 +13565,10 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>589.75</v>
+        <v>578.25</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13469,7 +13596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13495,7 +13622,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13521,7 +13648,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13547,7 +13674,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13573,7 +13700,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13599,7 +13726,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13625,7 +13752,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13651,7 +13778,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13671,7 +13798,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13691,7 +13818,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13711,7 +13838,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13732,7 +13859,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13753,7 +13880,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13774,7 +13901,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13795,7 +13922,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13816,7 +13943,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13837,7 +13964,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13858,7 +13985,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13879,7 +14006,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13900,7 +14027,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13921,7 +14048,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13942,7 +14069,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13963,7 +14090,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13984,7 +14111,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14005,7 +14132,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14026,7 +14153,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14047,7 +14174,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14068,7 +14195,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14089,7 +14216,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14110,7 +14237,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14131,7 +14258,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14140,7 +14267,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14149,7 +14276,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14158,7 +14285,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14167,7 +14294,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14176,7 +14303,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14185,7 +14312,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14194,7 +14321,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14203,7 +14330,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14212,7 +14339,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14221,7 +14348,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14230,7 +14357,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14239,7 +14366,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14248,7 +14375,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14257,7 +14384,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14266,7 +14393,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14275,7 +14402,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14284,7 +14411,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14293,7 +14420,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14302,7 +14429,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14311,7 +14438,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14320,7 +14447,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14329,7 +14456,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14338,7 +14465,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14347,7 +14474,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14356,7 +14483,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14365,7 +14492,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14374,7 +14501,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14383,7 +14510,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14392,7 +14519,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/MIRANDA, BIENVENIDO.xlsx
+++ b/REGULAR/OJT/NEW DONE/MIRANDA, BIENVENIDO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="188">
   <si>
     <t>PERIOD</t>
   </si>
@@ -592,6 +592,12 @@
   </si>
   <si>
     <t>5/2-5,8-23/2023</t>
+  </si>
+  <si>
+    <t>SL(10-0-0)</t>
+  </si>
+  <si>
+    <t>5/15-19,22-26/2023</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1497,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1540,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1604,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1664,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1730,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1793,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,7 +1891,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1950,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2015,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2058,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2133,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2319,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2385,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2443,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2509,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2565,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2640,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2683,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2749,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2805,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2903,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2966,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3410,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A460" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B470" sqref="B470"/>
+      <selection pane="bottomLeft" activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,7 +3583,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>322.125</v>
+        <v>312.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13273,8 +13279,12 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="40"/>
-      <c r="B470" s="20"/>
+      <c r="A470" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B470" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="C470" s="13"/>
       <c r="D470" s="39"/>
       <c r="E470" s="9"/>
@@ -13283,10 +13293,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H470" s="39"/>
+      <c r="H470" s="39">
+        <v>10</v>
+      </c>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
-      <c r="K470" s="20"/>
+      <c r="K470" s="20" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
@@ -13568,7 +13582,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>578.25</v>
+        <v>568.25</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/NEW DONE/MIRANDA, BIENVENIDO.xlsx
+++ b/REGULAR/OJT/NEW DONE/MIRANDA, BIENVENIDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708B2A9F-6A26-4E80-8864-B0C069635E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="190">
   <si>
     <t>PERIOD</t>
   </si>
@@ -598,12 +599,18 @@
   </si>
   <si>
     <t>5/15-19,22-26/2023</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>5/29 - 6/2/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1497,7 +1504,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1547,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1611,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1671,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1737,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1800,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1898,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1957,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2022,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2065,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2140,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2326,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2392,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2450,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2516,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,7 +2572,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2647,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2690,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2749,7 +2756,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2812,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2910,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2973,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3022,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3032,38 +3039,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K477" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K528" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3072,14 +3079,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3383,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3393,7 +3400,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3401,34 +3408,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K477"/>
+  <dimension ref="A2:K528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A460" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A467" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B471" sqref="B471"/>
+      <selection pane="bottomLeft" activeCell="I475" sqref="I475"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3449,7 +3456,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3469,7 +3476,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3491,7 +3498,7 @@
       <c r="J4" s="65"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3499,7 +3506,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3512,7 +3519,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3529,7 +3536,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3564,7 +3571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3583,12 +3590,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>312.125</v>
+        <v>307.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>43</v>
       </c>
@@ -3610,7 +3617,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -3630,7 +3637,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35004</v>
       </c>
@@ -3650,7 +3657,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35034</v>
       </c>
@@ -3670,7 +3677,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>45</v>
       </c>
@@ -3688,7 +3695,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35065</v>
       </c>
@@ -3708,7 +3715,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35096</v>
@@ -3729,7 +3736,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A27" si="0">EDATE(A16,1)</f>
         <v>35125</v>
@@ -3750,7 +3757,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -3771,7 +3778,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -3792,7 +3799,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -3813,7 +3820,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -3834,7 +3841,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -3855,7 +3862,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="50" t="s">
         <v>46</v>
@@ -3873,7 +3880,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35309</v>
@@ -3894,7 +3901,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -3915,7 +3922,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f>EDATE(A25,1)</f>
         <v>35370</v>
@@ -3936,7 +3943,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -3961,7 +3968,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>48</v>
       </c>
@@ -3979,7 +3986,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35431</v>
       </c>
@@ -3999,7 +4006,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35462</v>
@@ -4020,7 +4027,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" ref="A31:A43" si="1">EDATE(A30,1)</f>
         <v>35490</v>
@@ -4041,7 +4048,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35521</v>
@@ -4062,7 +4069,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35551</v>
@@ -4087,7 +4094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4105,7 +4112,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>35582</v>
@@ -4130,7 +4137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -4148,7 +4155,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35612</v>
@@ -4169,7 +4176,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35643</v>
@@ -4190,7 +4197,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -4211,7 +4218,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -4236,7 +4243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4254,7 +4261,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35735</v>
@@ -4275,7 +4282,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -4296,7 +4303,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>54</v>
       </c>
@@ -4314,7 +4321,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>35796</v>
       </c>
@@ -4334,7 +4341,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>35827</v>
@@ -4355,7 +4362,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" ref="A47" si="2">EDATE(A46,1)</f>
         <v>35855</v>
@@ -4380,7 +4387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="54"/>
       <c r="B48" s="11" t="s">
         <v>51</v>
@@ -4402,7 +4409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="52" t="s">
         <v>58</v>
       </c>
@@ -4422,7 +4429,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="52" t="s">
         <v>60</v>
       </c>
@@ -4442,7 +4449,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="54">
         <v>35977</v>
       </c>
@@ -4462,7 +4469,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>36008</v>
@@ -4483,7 +4490,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A55" si="3">EDATE(A52,1)</f>
         <v>36039</v>
@@ -4504,7 +4511,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -4525,7 +4532,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -4546,7 +4553,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>36130</v>
@@ -4567,7 +4574,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="49" t="s">
         <v>62</v>
       </c>
@@ -4585,7 +4592,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -4605,7 +4612,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>36192</v>
@@ -4626,7 +4633,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A68" si="4">EDATE(A59,1)</f>
         <v>36220</v>
@@ -4651,7 +4658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4669,7 +4676,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f>EDATE(A60,1)</f>
         <v>36251</v>
@@ -4694,7 +4701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4712,7 +4719,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36281</v>
@@ -4737,7 +4744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4755,7 +4762,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36312</v>
@@ -4776,7 +4783,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -4797,7 +4804,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -4822,7 +4829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4840,7 +4847,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36404</v>
@@ -4865,7 +4872,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4883,7 +4890,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36434</v>
@@ -4906,7 +4913,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>55</v>
@@ -4928,7 +4935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4946,7 +4953,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A72,1)</f>
         <v>36465</v>
@@ -4971,7 +4978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4989,7 +4996,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36495</v>
@@ -5010,7 +5017,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="49" t="s">
         <v>73</v>
       </c>
@@ -5028,7 +5035,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -5048,7 +5055,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>36557</v>
@@ -5073,7 +5080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>75</v>
@@ -5095,7 +5102,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>76</v>
@@ -5115,7 +5122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5133,7 +5140,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A80,1)</f>
         <v>36586</v>
@@ -5158,7 +5165,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5176,7 +5183,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>36617</v>
@@ -5201,7 +5208,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5219,7 +5226,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36647</v>
@@ -5240,7 +5247,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A96" si="5">EDATE(A88,1)</f>
         <v>36678</v>
@@ -5261,7 +5268,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -5282,7 +5289,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -5303,7 +5310,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -5328,7 +5335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>78</v>
@@ -5348,7 +5355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5366,7 +5373,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>36800</v>
@@ -5387,7 +5394,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -5408,7 +5415,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A96,1)</f>
         <v>36861</v>
@@ -5433,7 +5440,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="49" t="s">
         <v>81</v>
       </c>
@@ -5451,7 +5458,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>36892</v>
       </c>
@@ -5471,7 +5478,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A99,1)</f>
         <v>36923</v>
@@ -5494,7 +5501,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5512,7 +5519,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36951</v>
@@ -5533,7 +5540,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" ref="A103:A108" si="6">EDATE(A102,1)</f>
         <v>36982</v>
@@ -5554,7 +5561,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -5575,7 +5582,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -5596,7 +5603,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -5617,7 +5624,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -5638,7 +5645,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -5663,7 +5670,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -5685,7 +5692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>76</v>
@@ -5705,7 +5712,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
@@ -5723,7 +5730,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A108,1)</f>
         <v>37165</v>
@@ -5748,7 +5755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5766,7 +5773,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37196</v>
@@ -5791,7 +5798,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>76</v>
@@ -5811,7 +5818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -5829,7 +5836,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -5850,7 +5857,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="49" t="s">
         <v>87</v>
       </c>
@@ -5868,7 +5875,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37257</v>
       </c>
@@ -5892,7 +5899,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5910,7 +5917,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37288</v>
@@ -5931,7 +5938,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" ref="A122:A132" si="7">EDATE(A121,1)</f>
         <v>37316</v>
@@ -5952,7 +5959,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -5973,7 +5980,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -5998,7 +6005,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6016,7 +6023,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37408</v>
@@ -6037,7 +6044,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6058,7 +6065,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6079,7 +6086,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6100,7 +6107,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6121,7 +6128,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6142,7 +6149,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6169,7 +6176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>69</v>
@@ -6189,7 +6196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="49" t="s">
         <v>92</v>
       </c>
@@ -6207,7 +6214,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>37622</v>
       </c>
@@ -6227,7 +6234,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A135,1)</f>
         <v>37653</v>
@@ -6252,7 +6259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6270,7 +6277,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>37681</v>
@@ -6291,7 +6298,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A148" si="8">EDATE(A138,1)</f>
         <v>37712</v>
@@ -6312,7 +6319,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -6339,7 +6346,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>49</v>
@@ -6361,7 +6368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37773</v>
@@ -6382,7 +6389,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -6403,7 +6410,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>37834</v>
@@ -6424,7 +6431,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>37865</v>
@@ -6451,7 +6458,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A145,1)</f>
         <v>37895</v>
@@ -6478,7 +6485,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>37926</v>
@@ -6499,7 +6506,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>37956</v>
@@ -6524,7 +6531,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="49" t="s">
         <v>99</v>
       </c>
@@ -6542,7 +6549,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>37987</v>
       </c>
@@ -6562,7 +6569,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>38018</v>
@@ -6583,7 +6590,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" ref="A152:A161" si="9">EDATE(A151,1)</f>
         <v>38047</v>
@@ -6604,7 +6611,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>38078</v>
@@ -6625,7 +6632,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -6646,7 +6653,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="9"/>
         <v>38139</v>
@@ -6667,7 +6674,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="9"/>
         <v>38169</v>
@@ -6694,7 +6701,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f>EDATE(A156,1)</f>
         <v>38200</v>
@@ -6715,7 +6722,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="9"/>
         <v>38231</v>
@@ -6736,7 +6743,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="9"/>
         <v>38261</v>
@@ -6757,7 +6764,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="9"/>
         <v>38292</v>
@@ -6778,7 +6785,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>38322</v>
@@ -6803,7 +6810,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="49" t="s">
         <v>102</v>
       </c>
@@ -6821,7 +6828,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38353</v>
       </c>
@@ -6841,7 +6848,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f>EDATE(A163,1)</f>
         <v>38384</v>
@@ -6862,7 +6869,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" ref="A165:A174" si="10">EDATE(A164,1)</f>
         <v>38412</v>
@@ -6883,7 +6890,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>38443</v>
@@ -6904,7 +6911,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -6925,7 +6932,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -6946,7 +6953,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -6967,7 +6974,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -6988,7 +6995,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -7009,7 +7016,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>38626</v>
@@ -7030,7 +7037,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="10"/>
         <v>38657</v>
@@ -7051,7 +7058,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -7076,7 +7083,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="49" t="s">
         <v>103</v>
       </c>
@@ -7094,7 +7101,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38718</v>
       </c>
@@ -7114,7 +7121,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41">
         <f>EDATE(A176,1)</f>
         <v>38749</v>
@@ -7135,7 +7142,7 @@
       <c r="J177" s="12"/>
       <c r="K177" s="15"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41">
         <f t="shared" ref="A178:A187" si="11">EDATE(A177,1)</f>
         <v>38777</v>
@@ -7156,7 +7163,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41">
         <f t="shared" si="11"/>
         <v>38808</v>
@@ -7177,7 +7184,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41">
         <f t="shared" si="11"/>
         <v>38838</v>
@@ -7198,7 +7205,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -7219,7 +7226,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -7240,7 +7247,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41">
         <f t="shared" si="11"/>
         <v>38930</v>
@@ -7261,7 +7268,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -7282,7 +7289,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -7303,7 +7310,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -7324,7 +7331,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41">
         <f t="shared" si="11"/>
         <v>39052</v>
@@ -7349,7 +7356,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20" t="s">
         <v>105</v>
@@ -7371,7 +7378,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="57" t="s">
         <v>106</v>
       </c>
@@ -7389,7 +7396,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39083</v>
       </c>
@@ -7409,7 +7416,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f>EDATE(A190,1)</f>
         <v>39114</v>
@@ -7430,7 +7437,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A207" si="12">EDATE(A191,1)</f>
         <v>39142</v>
@@ -7453,7 +7460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7471,7 +7478,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f>EDATE(A192,1)</f>
         <v>39173</v>
@@ -7492,7 +7499,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="12"/>
         <v>39203</v>
@@ -7513,7 +7520,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -7538,7 +7545,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7556,7 +7563,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>39264</v>
@@ -7581,7 +7588,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>76</v>
@@ -7601,7 +7608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7619,7 +7626,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39295</v>
@@ -7646,7 +7653,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>109</v>
@@ -7668,7 +7675,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>75</v>
@@ -7690,7 +7697,7 @@
         <v>46966</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A201,1)</f>
         <v>39326</v>
@@ -7711,7 +7718,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A204,1)</f>
         <v>39356</v>
@@ -7736,7 +7743,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>39387</v>
@@ -7757,7 +7764,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" si="12"/>
         <v>39417</v>
@@ -7778,7 +7785,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="49" t="s">
         <v>112</v>
       </c>
@@ -7796,7 +7803,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>39448</v>
       </c>
@@ -7816,7 +7823,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f>EDATE(A209,1)</f>
         <v>39479</v>
@@ -7837,7 +7844,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" ref="A211:A218" si="13">EDATE(A210,1)</f>
         <v>39508</v>
@@ -7858,7 +7865,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="13"/>
         <v>39539</v>
@@ -7879,7 +7886,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="13"/>
         <v>39569</v>
@@ -7900,7 +7907,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="13"/>
         <v>39600</v>
@@ -7923,7 +7930,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
@@ -7941,7 +7948,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f>EDATE(A214,1)</f>
         <v>39630</v>
@@ -7962,7 +7969,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" si="13"/>
         <v>39661</v>
@@ -7983,7 +7990,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="13"/>
         <v>39692</v>
@@ -8008,7 +8015,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -8026,7 +8033,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39722</v>
@@ -8051,7 +8058,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -8069,7 +8076,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39753</v>
@@ -8092,7 +8099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -8110,7 +8117,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39783</v>
@@ -8131,7 +8138,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="49" t="s">
         <v>117</v>
       </c>
@@ -8149,7 +8156,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39814</v>
       </c>
@@ -8169,7 +8176,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A226,1)</f>
         <v>39845</v>
@@ -8192,7 +8199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -8210,7 +8217,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39873</v>
@@ -8233,7 +8240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13">
@@ -8251,7 +8258,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f>EDATE(A229,1)</f>
         <v>39904</v>
@@ -8272,7 +8279,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" ref="A232:A239" si="14">EDATE(A231,1)</f>
         <v>39934</v>
@@ -8293,7 +8300,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="14"/>
         <v>39965</v>
@@ -8316,7 +8323,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8334,7 +8341,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39995</v>
@@ -8355,7 +8362,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="14"/>
         <v>40026</v>
@@ -8376,7 +8383,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="14"/>
         <v>40057</v>
@@ -8397,7 +8404,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="14"/>
         <v>40087</v>
@@ -8418,7 +8425,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="14"/>
         <v>40118</v>
@@ -8439,7 +8446,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A239,1)</f>
         <v>40148</v>
@@ -8464,7 +8471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8482,7 +8489,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="49" t="s">
         <v>122</v>
       </c>
@@ -8500,7 +8507,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40179</v>
       </c>
@@ -8524,7 +8531,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8542,7 +8549,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40210</v>
@@ -8567,7 +8574,7 @@
         <v>47119</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -8587,7 +8594,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>75</v>
@@ -8609,7 +8616,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>76</v>
@@ -8629,7 +8636,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8647,7 +8654,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A245,1)</f>
         <v>40238</v>
@@ -8668,7 +8675,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" ref="A251:A256" si="15">EDATE(A250,1)</f>
         <v>40269</v>
@@ -8689,7 +8696,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="15"/>
         <v>40299</v>
@@ -8710,7 +8717,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="15"/>
         <v>40330</v>
@@ -8731,7 +8738,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="15"/>
         <v>40360</v>
@@ -8752,7 +8759,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="15"/>
         <v>40391</v>
@@ -8773,7 +8780,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="15"/>
         <v>40422</v>
@@ -8798,7 +8805,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>75</v>
@@ -8820,7 +8827,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>75</v>
@@ -8842,7 +8849,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -8860,7 +8867,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>40452</v>
@@ -8885,7 +8892,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13">
@@ -8903,7 +8910,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>40483</v>
@@ -8926,7 +8933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -8944,7 +8951,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>40513</v>
@@ -8965,7 +8972,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="49" t="s">
         <v>130</v>
       </c>
@@ -8983,7 +8990,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40544</v>
       </c>
@@ -9005,7 +9012,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9023,7 +9030,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40575</v>
@@ -9044,7 +9051,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" ref="A269:A281" si="16">EDATE(A268,1)</f>
         <v>40603</v>
@@ -9065,7 +9072,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="16"/>
         <v>40634</v>
@@ -9086,7 +9093,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="16"/>
         <v>40664</v>
@@ -9111,7 +9118,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>40695</v>
@@ -9134,7 +9141,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>133</v>
@@ -9156,7 +9163,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>80</v>
@@ -9178,7 +9185,7 @@
         <v>47270</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13">
@@ -9196,7 +9203,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A272,1)</f>
         <v>40725</v>
@@ -9217,7 +9224,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="16"/>
         <v>40756</v>
@@ -9240,7 +9247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>47</v>
@@ -9262,7 +9269,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9280,7 +9287,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A277,1)</f>
         <v>40787</v>
@@ -9301,7 +9308,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="16"/>
         <v>40817</v>
@@ -9326,7 +9333,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>138</v>
@@ -9348,7 +9355,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9366,7 +9373,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>40848</v>
@@ -9391,7 +9398,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9409,7 +9416,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>40878</v>
@@ -9434,7 +9441,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>55</v>
@@ -9456,7 +9463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>138</v>
@@ -9478,7 +9485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13">
@@ -9496,7 +9503,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="49" t="s">
         <v>143</v>
       </c>
@@ -9514,7 +9521,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40909</v>
       </c>
@@ -9534,7 +9541,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A291,1)</f>
         <v>40940</v>
@@ -9557,7 +9564,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>55</v>
@@ -9579,7 +9586,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>105</v>
@@ -9601,7 +9608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A292,1)</f>
         <v>40969</v>
@@ -9622,7 +9629,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" ref="A296:A314" si="17">EDATE(A295,1)</f>
         <v>41000</v>
@@ -9645,7 +9652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13">
@@ -9663,7 +9670,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41030</v>
@@ -9688,7 +9695,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -9706,7 +9713,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41061</v>
@@ -9731,7 +9738,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>51</v>
@@ -9751,7 +9758,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20"/>
       <c r="C302" s="13">
@@ -9769,7 +9776,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>41091</v>
@@ -9790,7 +9797,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>41122</v>
@@ -9811,7 +9818,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>41153</v>
@@ -9836,7 +9843,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>80</v>
@@ -9858,7 +9865,7 @@
         <v>46997</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>75</v>
@@ -9880,7 +9887,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>75</v>
@@ -9902,7 +9909,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -9920,7 +9927,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A305,1)</f>
         <v>41183</v>
@@ -9945,7 +9952,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>75</v>
@@ -9965,7 +9972,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -9983,7 +9990,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>41214</v>
@@ -10004,7 +10011,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="17"/>
         <v>41244</v>
@@ -10029,7 +10036,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10051,7 +10058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13">
@@ -10069,7 +10076,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="49" t="s">
         <v>150</v>
       </c>
@@ -10087,7 +10094,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>41275</v>
       </c>
@@ -10109,7 +10116,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>80</v>
@@ -10131,7 +10138,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>76</v>
@@ -10151,7 +10158,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13">
@@ -10169,7 +10176,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A318,1)</f>
         <v>41306</v>
@@ -10194,7 +10201,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>75</v>
@@ -10216,7 +10223,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>138</v>
@@ -10238,7 +10245,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -10256,7 +10263,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f>EDATE(A322,1)</f>
         <v>41334</v>
@@ -10281,7 +10288,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13">
@@ -10299,7 +10306,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A326,1)</f>
         <v>41365</v>
@@ -10320,7 +10327,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" ref="A329:A338" si="18">EDATE(A328,1)</f>
         <v>41395</v>
@@ -10341,7 +10348,7 @@
       <c r="J329" s="12"/>
       <c r="K329" s="15"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="18"/>
         <v>41426</v>
@@ -10366,7 +10373,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -10384,7 +10391,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>41456</v>
@@ -10405,7 +10412,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="18"/>
         <v>41487</v>
@@ -10426,7 +10433,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="18"/>
         <v>41518</v>
@@ -10447,7 +10454,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="18"/>
         <v>41548</v>
@@ -10472,7 +10479,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -10490,7 +10497,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>41579</v>
@@ -10511,7 +10518,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -10532,7 +10539,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="49" t="s">
         <v>157</v>
       </c>
@@ -10550,7 +10557,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41640</v>
       </c>
@@ -10570,7 +10577,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A340,1)</f>
         <v>41671</v>
@@ -10591,7 +10598,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A351" si="19">EDATE(A341,1)</f>
         <v>41699</v>
@@ -10612,7 +10619,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="19"/>
         <v>41730</v>
@@ -10633,7 +10640,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -10654,7 +10661,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="19"/>
         <v>41791</v>
@@ -10675,7 +10682,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -10696,7 +10703,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -10717,7 +10724,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="19"/>
         <v>41883</v>
@@ -10738,7 +10745,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -10765,7 +10772,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -10786,7 +10793,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" si="19"/>
         <v>41974</v>
@@ -10807,7 +10814,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="49" t="s">
         <v>156</v>
       </c>
@@ -10825,7 +10832,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>42005</v>
       </c>
@@ -10845,7 +10852,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A353,1)</f>
         <v>42036</v>
@@ -10866,7 +10873,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A364" si="20">EDATE(A354,1)</f>
         <v>42064</v>
@@ -10887,7 +10894,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="20"/>
         <v>42095</v>
@@ -10908,7 +10915,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" si="20"/>
         <v>42125</v>
@@ -10929,7 +10936,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f t="shared" si="20"/>
         <v>42156</v>
@@ -10950,7 +10957,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -10971,7 +10978,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -10992,7 +10999,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -11013,7 +11020,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -11040,7 +11047,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A362,1)</f>
         <v>42309</v>
@@ -11061,7 +11068,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="20"/>
         <v>42339</v>
@@ -11086,7 +11093,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="49" t="s">
         <v>159</v>
       </c>
@@ -11104,7 +11111,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>42370</v>
       </c>
@@ -11124,7 +11131,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f>EDATE(A366,1)</f>
         <v>42401</v>
@@ -11145,7 +11152,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f t="shared" ref="A368:A378" si="21">EDATE(A367,1)</f>
         <v>42430</v>
@@ -11168,7 +11175,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13">
@@ -11186,7 +11193,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>42461</v>
@@ -11207,7 +11214,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="21"/>
         <v>42491</v>
@@ -11228,7 +11235,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="21"/>
         <v>42522</v>
@@ -11249,7 +11256,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="21"/>
         <v>42552</v>
@@ -11270,7 +11277,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -11291,7 +11298,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="21"/>
         <v>42614</v>
@@ -11312,7 +11319,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f t="shared" si="21"/>
         <v>42644</v>
@@ -11333,7 +11340,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f t="shared" si="21"/>
         <v>42675</v>
@@ -11354,7 +11361,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="21"/>
         <v>42705</v>
@@ -11379,7 +11386,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>66</v>
@@ -11401,7 +11408,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -11419,7 +11426,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="49" t="s">
         <v>164</v>
       </c>
@@ -11437,7 +11444,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>42736</v>
       </c>
@@ -11457,7 +11464,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A382,1)</f>
         <v>42767</v>
@@ -11478,7 +11485,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" ref="A384:A393" si="22">EDATE(A383,1)</f>
         <v>42795</v>
@@ -11499,7 +11506,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="22"/>
         <v>42826</v>
@@ -11520,7 +11527,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="22"/>
         <v>42856</v>
@@ -11541,7 +11548,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="22"/>
         <v>42887</v>
@@ -11562,7 +11569,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="22"/>
         <v>42917</v>
@@ -11583,7 +11590,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="22"/>
         <v>42948</v>
@@ -11604,7 +11611,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="22"/>
         <v>42979</v>
@@ -11625,7 +11632,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -11646,7 +11653,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="22"/>
         <v>43040</v>
@@ -11667,7 +11674,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f t="shared" si="22"/>
         <v>43070</v>
@@ -11692,7 +11699,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>69</v>
@@ -11712,7 +11719,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13">
@@ -11730,7 +11737,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="49" t="s">
         <v>167</v>
       </c>
@@ -11748,7 +11755,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>43101</v>
       </c>
@@ -11768,7 +11775,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>43132</v>
@@ -11789,7 +11796,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A411" si="23">EDATE(A398,1)</f>
         <v>43160</v>
@@ -11814,7 +11821,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>76</v>
@@ -11834,7 +11841,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13">
@@ -11852,7 +11859,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A399,1)</f>
         <v>43191</v>
@@ -11873,7 +11880,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -11894,7 +11901,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -11915,7 +11922,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -11936,7 +11943,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="23"/>
         <v>43313</v>
@@ -11957,7 +11964,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="23"/>
         <v>43344</v>
@@ -11978,7 +11985,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -12003,7 +12010,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -12021,7 +12028,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>43405</v>
@@ -12042,7 +12049,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f t="shared" si="23"/>
         <v>43435</v>
@@ -12063,7 +12070,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="49" t="s">
         <v>170</v>
       </c>
@@ -12081,7 +12088,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>43466</v>
       </c>
@@ -12101,7 +12108,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A413,1)</f>
         <v>43497</v>
@@ -12122,7 +12129,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" ref="A415:A424" si="24">EDATE(A414,1)</f>
         <v>43525</v>
@@ -12143,7 +12150,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="24"/>
         <v>43556</v>
@@ -12164,7 +12171,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="24"/>
         <v>43586</v>
@@ -12185,7 +12192,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -12206,7 +12213,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -12227,7 +12234,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -12248,7 +12255,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -12269,7 +12276,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -12290,7 +12297,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f>EDATE(A422,1)</f>
         <v>43770</v>
@@ -12311,7 +12318,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f t="shared" si="24"/>
         <v>43800</v>
@@ -12336,7 +12343,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="49" t="s">
         <v>171</v>
       </c>
@@ -12354,7 +12361,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>43831</v>
       </c>
@@ -12376,7 +12383,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13">
@@ -12394,7 +12401,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43862</v>
@@ -12415,7 +12422,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" ref="A429:A437" si="25">EDATE(A428,1)</f>
         <v>43891</v>
@@ -12436,7 +12443,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="25"/>
         <v>43922</v>
@@ -12457,7 +12464,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -12478,7 +12485,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -12499,7 +12506,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -12520,7 +12527,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f t="shared" si="25"/>
         <v>44044</v>
@@ -12541,7 +12548,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -12562,7 +12569,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="25"/>
         <v>44105</v>
@@ -12583,7 +12590,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="25"/>
         <v>44136</v>
@@ -12604,7 +12611,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f>EDATE(A437,1)</f>
         <v>44166</v>
@@ -12629,7 +12636,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="49" t="s">
         <v>174</v>
       </c>
@@ -12647,7 +12654,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>44197</v>
       </c>
@@ -12667,7 +12674,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A440,1)</f>
         <v>44228</v>
@@ -12688,7 +12695,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" ref="A442:A451" si="26">EDATE(A441,1)</f>
         <v>44256</v>
@@ -12709,7 +12716,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="26"/>
         <v>44287</v>
@@ -12730,7 +12737,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="26"/>
         <v>44317</v>
@@ -12751,7 +12758,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="26"/>
         <v>44348</v>
@@ -12772,7 +12779,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="26"/>
         <v>44378</v>
@@ -12793,7 +12800,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="26"/>
         <v>44409</v>
@@ -12814,7 +12821,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f t="shared" si="26"/>
         <v>44440</v>
@@ -12835,7 +12842,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="26"/>
         <v>44470</v>
@@ -12856,7 +12863,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="26"/>
         <v>44501</v>
@@ -12877,7 +12884,7 @@
       <c r="J450" s="12"/>
       <c r="K450" s="15"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="26"/>
         <v>44531</v>
@@ -12902,7 +12909,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="49" t="s">
         <v>175</v>
       </c>
@@ -12920,7 +12927,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>44562</v>
       </c>
@@ -12940,7 +12947,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A453,1)</f>
         <v>44593</v>
@@ -12961,7 +12968,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f>EDATE(A454,1)</f>
         <v>44621</v>
@@ -12988,7 +12995,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>44652</v>
       </c>
@@ -13008,7 +13015,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>44682</v>
       </c>
@@ -13028,7 +13035,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44713</v>
       </c>
@@ -13048,7 +13055,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44743</v>
       </c>
@@ -13068,7 +13075,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>44774</v>
       </c>
@@ -13088,7 +13095,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>44805</v>
       </c>
@@ -13108,7 +13115,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44835</v>
       </c>
@@ -13128,7 +13135,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>44866</v>
       </c>
@@ -13148,7 +13155,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>44896</v>
       </c>
@@ -13168,7 +13175,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="49" t="s">
         <v>177</v>
       </c>
@@ -13186,7 +13193,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44927</v>
       </c>
@@ -13206,7 +13213,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>44958</v>
       </c>
@@ -13232,7 +13239,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>44986</v>
       </c>
@@ -13252,7 +13259,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>45017</v>
       </c>
@@ -13278,7 +13285,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>45047</v>
       </c>
@@ -13302,9 +13309,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="40"/>
-      <c r="B471" s="20"/>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B471" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="C471" s="13"/>
       <c r="D471" s="39"/>
       <c r="E471" s="9"/>
@@ -13313,13 +13324,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H471" s="39"/>
+      <c r="H471" s="39">
+        <v>5</v>
+      </c>
       <c r="I471" s="9"/>
       <c r="J471" s="11"/>
-      <c r="K471" s="20"/>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="40"/>
+      <c r="K471" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" s="40">
+        <v>45108</v>
+      </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
       <c r="D472" s="39"/>
@@ -13334,8 +13351,10 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A473" s="40"/>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" s="40">
+        <v>45139</v>
+      </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
       <c r="D473" s="39"/>
@@ -13350,8 +13369,10 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="40"/>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474" s="40">
+        <v>45170</v>
+      </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
       <c r="D474" s="39"/>
@@ -13366,8 +13387,10 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="40"/>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="40">
+        <v>45200</v>
+      </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
       <c r="D475" s="39"/>
@@ -13382,8 +13405,10 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" s="40"/>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="40">
+        <v>45231</v>
+      </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
       <c r="D476" s="39"/>
@@ -13398,8 +13423,10 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" s="41"/>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="40">
+        <v>45261</v>
+      </c>
       <c r="B477" s="15"/>
       <c r="C477" s="42"/>
       <c r="D477" s="43"/>
@@ -13413,6 +13440,924 @@
       <c r="I477" s="56"/>
       <c r="J477" s="12"/>
       <c r="K477" s="15"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="39"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="39"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="39"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H479" s="39"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="39"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H480" s="39"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="39"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="39"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="39"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="39"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="39"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="39"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="39"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H484" s="39"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="39"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="39"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B486" s="20"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="39"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="20"/>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="39"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="11"/>
+      <c r="K486" s="20"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A487" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B487" s="20"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="39"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="20"/>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="39"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="11"/>
+      <c r="K487" s="20"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B488" s="20"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="39"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="20"/>
+      <c r="G488" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H488" s="39"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="11"/>
+      <c r="K488" s="20"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B489" s="20"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="39"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="20"/>
+      <c r="G489" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H489" s="39"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="11"/>
+      <c r="K489" s="20"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A490" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B490" s="20"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="39"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="20"/>
+      <c r="G490" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H490" s="39"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="11"/>
+      <c r="K490" s="20"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A491" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B491" s="20"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="39"/>
+      <c r="E491" s="9"/>
+      <c r="F491" s="20"/>
+      <c r="G491" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H491" s="39"/>
+      <c r="I491" s="9"/>
+      <c r="J491" s="11"/>
+      <c r="K491" s="20"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A492" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B492" s="20"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="39"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="20"/>
+      <c r="G492" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H492" s="39"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="11"/>
+      <c r="K492" s="20"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493" s="40">
+        <v>45748</v>
+      </c>
+      <c r="B493" s="20"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="39"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="20"/>
+      <c r="G493" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H493" s="39"/>
+      <c r="I493" s="9"/>
+      <c r="J493" s="11"/>
+      <c r="K493" s="20"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494" s="40">
+        <v>45778</v>
+      </c>
+      <c r="B494" s="20"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="39"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="20"/>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H494" s="39"/>
+      <c r="I494" s="9"/>
+      <c r="J494" s="11"/>
+      <c r="K494" s="20"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A495" s="40">
+        <v>45809</v>
+      </c>
+      <c r="B495" s="20"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="39"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="20"/>
+      <c r="G495" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H495" s="39"/>
+      <c r="I495" s="9"/>
+      <c r="J495" s="11"/>
+      <c r="K495" s="20"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A496" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B496" s="20"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="39"/>
+      <c r="E496" s="9"/>
+      <c r="F496" s="20"/>
+      <c r="G496" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H496" s="39"/>
+      <c r="I496" s="9"/>
+      <c r="J496" s="11"/>
+      <c r="K496" s="20"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A497" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B497" s="20"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="39"/>
+      <c r="E497" s="9"/>
+      <c r="F497" s="20"/>
+      <c r="G497" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H497" s="39"/>
+      <c r="I497" s="9"/>
+      <c r="J497" s="11"/>
+      <c r="K497" s="20"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B498" s="20"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="39"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="20"/>
+      <c r="G498" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H498" s="39"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="11"/>
+      <c r="K498" s="20"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A499" s="40">
+        <v>45931</v>
+      </c>
+      <c r="B499" s="20"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="39"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="20"/>
+      <c r="G499" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H499" s="39"/>
+      <c r="I499" s="9"/>
+      <c r="J499" s="11"/>
+      <c r="K499" s="20"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A500" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B500" s="20"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="39"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="20"/>
+      <c r="G500" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H500" s="39"/>
+      <c r="I500" s="9"/>
+      <c r="J500" s="11"/>
+      <c r="K500" s="20"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A501" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B501" s="20"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="39"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="20"/>
+      <c r="G501" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H501" s="39"/>
+      <c r="I501" s="9"/>
+      <c r="J501" s="11"/>
+      <c r="K501" s="20"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B502" s="20"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="39"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="20"/>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H502" s="39"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="11"/>
+      <c r="K502" s="20"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B503" s="20"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="39"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="20"/>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H503" s="39"/>
+      <c r="I503" s="9"/>
+      <c r="J503" s="11"/>
+      <c r="K503" s="20"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B504" s="20"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="39"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="20"/>
+      <c r="G504" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H504" s="39"/>
+      <c r="I504" s="9"/>
+      <c r="J504" s="11"/>
+      <c r="K504" s="20"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B505" s="20"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="39"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="20"/>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H505" s="39"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="11"/>
+      <c r="K505" s="20"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506" s="40">
+        <v>46143</v>
+      </c>
+      <c r="B506" s="20"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="20"/>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H506" s="39"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A507" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="39"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="20"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H507" s="39"/>
+      <c r="I507" s="9"/>
+      <c r="J507" s="11"/>
+      <c r="K507" s="20"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" s="40">
+        <v>46204</v>
+      </c>
+      <c r="B508" s="20"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="39"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="20"/>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H508" s="39"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="11"/>
+      <c r="K508" s="20"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="40">
+        <v>46235</v>
+      </c>
+      <c r="B509" s="20"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="39"/>
+      <c r="E509" s="9"/>
+      <c r="F509" s="20"/>
+      <c r="G509" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H509" s="39"/>
+      <c r="I509" s="9"/>
+      <c r="J509" s="11"/>
+      <c r="K509" s="20"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="40">
+        <v>46266</v>
+      </c>
+      <c r="B510" s="20"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="39"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="20"/>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H510" s="39"/>
+      <c r="I510" s="9"/>
+      <c r="J510" s="11"/>
+      <c r="K510" s="20"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B511" s="20"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="39"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="20"/>
+      <c r="G511" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H511" s="39"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="40">
+        <v>46327</v>
+      </c>
+      <c r="B512" s="20"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="39"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="39"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="39"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H514" s="39"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="40">
+        <v>46419</v>
+      </c>
+      <c r="B515" s="20"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="39"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="39"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="20"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B516" s="20"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="39"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="20"/>
+      <c r="G516" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="39"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="11"/>
+      <c r="K516" s="20"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A517" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B517" s="20"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="39"/>
+      <c r="E517" s="9"/>
+      <c r="F517" s="20"/>
+      <c r="G517" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H517" s="39"/>
+      <c r="I517" s="9"/>
+      <c r="J517" s="11"/>
+      <c r="K517" s="20"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A518" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B518" s="20"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="39"/>
+      <c r="E518" s="9"/>
+      <c r="F518" s="20"/>
+      <c r="G518" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H518" s="39"/>
+      <c r="I518" s="9"/>
+      <c r="J518" s="11"/>
+      <c r="K518" s="20"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B519" s="20"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="39"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="39"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="20"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A520" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B520" s="20"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="39"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="20"/>
+      <c r="G520" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H520" s="39"/>
+      <c r="I520" s="9"/>
+      <c r="J520" s="11"/>
+      <c r="K520" s="20"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A521" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B521" s="20"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="39"/>
+      <c r="E521" s="9"/>
+      <c r="F521" s="20"/>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H521" s="39"/>
+      <c r="I521" s="9"/>
+      <c r="J521" s="11"/>
+      <c r="K521" s="20"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A522" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B522" s="20"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39"/>
+      <c r="E522" s="9"/>
+      <c r="F522" s="20"/>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H522" s="39"/>
+      <c r="I522" s="9"/>
+      <c r="J522" s="11"/>
+      <c r="K522" s="20"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A523" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B523" s="20"/>
+      <c r="C523" s="13"/>
+      <c r="D523" s="39"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="20"/>
+      <c r="G523" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H523" s="39"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="11"/>
+      <c r="K523" s="20"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A524" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B524" s="20"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="39"/>
+      <c r="E524" s="9"/>
+      <c r="F524" s="20"/>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H524" s="39"/>
+      <c r="I524" s="9"/>
+      <c r="J524" s="11"/>
+      <c r="K524" s="20"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A525" s="40">
+        <v>46722</v>
+      </c>
+      <c r="B525" s="20"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="39"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="20"/>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H525" s="39"/>
+      <c r="I525" s="9"/>
+      <c r="J525" s="11"/>
+      <c r="K525" s="20"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A526" s="40">
+        <v>46753</v>
+      </c>
+      <c r="B526" s="20"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="39"/>
+      <c r="E526" s="9"/>
+      <c r="F526" s="20"/>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H526" s="39"/>
+      <c r="I526" s="9"/>
+      <c r="J526" s="11"/>
+      <c r="K526" s="20"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A527" s="40">
+        <v>46784</v>
+      </c>
+      <c r="B527" s="20"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="39"/>
+      <c r="E527" s="9"/>
+      <c r="F527" s="20"/>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H527" s="39"/>
+      <c r="I527" s="9"/>
+      <c r="J527" s="11"/>
+      <c r="K527" s="20"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A528" s="40">
+        <v>46813</v>
+      </c>
+      <c r="B528" s="20"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="39"/>
+      <c r="E528" s="9"/>
+      <c r="F528" s="20"/>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="39"/>
+      <c r="I528" s="9"/>
+      <c r="J528" s="11"/>
+      <c r="K528" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13429,10 +14374,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13455,7 +14400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -13463,21 +14408,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
@@ -13490,7 +14435,7 @@
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13519,7 +14464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13545,17 +14490,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -13579,10 +14524,10 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>568.25</v>
+        <v>563.25</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13610,7 +14555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13636,7 +14581,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13662,7 +14607,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13688,7 +14633,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13714,7 +14659,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13740,7 +14685,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13766,7 +14711,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13792,7 +14737,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13812,7 +14757,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13832,7 +14777,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13852,7 +14797,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13873,7 +14818,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13894,7 +14839,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13915,7 +14860,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13936,7 +14881,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13957,7 +14902,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13978,7 +14923,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13999,7 +14944,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14020,7 +14965,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14041,7 +14986,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14062,7 +15007,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14083,7 +15028,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14104,7 +15049,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14125,7 +15070,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14146,7 +15091,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14167,7 +15112,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14188,7 +15133,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14209,7 +15154,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14230,7 +15175,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14251,7 +15196,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14272,7 +15217,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14281,7 +15226,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14290,7 +15235,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14299,7 +15244,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14308,7 +15253,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14317,7 +15262,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14326,7 +15271,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14335,7 +15280,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14344,7 +15289,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14353,7 +15298,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14362,7 +15307,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14371,7 +15316,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14380,7 +15325,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14389,7 +15334,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14398,7 +15343,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14407,7 +15352,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14416,7 +15361,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14425,7 +15370,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14434,7 +15379,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14443,7 +15388,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14452,7 +15397,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14461,7 +15406,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14470,7 +15415,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14479,7 +15424,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14488,7 +15433,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14497,7 +15442,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14506,7 +15451,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14515,7 +15460,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14524,7 +15469,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14533,7 +15478,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
